--- a/src/data/data.xlsx
+++ b/src/data/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>User:</t>
   </si>
@@ -45,6 +45,12 @@
     <t>testCity</t>
   </si>
   <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>20000000</t>
+  </si>
+  <si>
     <t>futureAddres</t>
   </si>
 </sst>
@@ -52,17 +58,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font/>
-    <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -78,17 +80,11 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -316,58 +312,58 @@
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="2">
-        <v>10000.0</v>
+      <c r="A10" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="2">
-        <v>2.0E7</v>
+      <c r="A11" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="3" t="s">
-        <v>9</v>
+      <c r="A12" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1"/>
